--- a/data/Course/CourseData2023.xlsx
+++ b/data/Course/CourseData2023.xlsx
@@ -4,22 +4,33 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="27630" windowHeight="14415"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Semester</t>
   </si>
@@ -79,6 +90,12 @@
   </si>
   <si>
     <t>SS 2023</t>
+  </si>
+  <si>
+    <t>WS 2023</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -129,11 +146,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -415,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +511,7 @@
       <c r="C3" s="2">
         <v>43922</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
@@ -544,7 +563,7 @@
       <c r="C5" s="2">
         <v>44287</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
@@ -605,7 +624,7 @@
       <c r="F7">
         <v>15</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <f>9/15</f>
         <v>0.6</v>
       </c>
@@ -630,7 +649,40 @@
         <v>10</v>
       </c>
       <c r="F8">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="G8" s="5">
+        <f>32/60</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="H8">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2023</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
